--- a/Examples.Library/src/main/resources/xlsx/Template_ShippingAndDeliveryOrder.xlsx
+++ b/Examples.Library/src/main/resources/xlsx/Template_ShippingAndDeliveryOrder.xlsx
@@ -462,56 +462,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,26 +534,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>770467</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>721363</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>163068</xdr:rowOff>
+      <xdr:rowOff>118534</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -572,8 +566,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1841500" y="431800"/>
-          <a:ext cx="889000" cy="544068"/>
+          <a:off x="2743200" y="711200"/>
+          <a:ext cx="1627296" cy="262467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -853,8 +847,8 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -868,11 +862,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -1261,80 +1255,80 @@
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="34" t="s">
+      <c r="C28" s="49"/>
+      <c r="D28" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34" t="s">
+      <c r="G28" s="41"/>
+      <c r="H28" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="46"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="47"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="48"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="13" t="s">
         <v>53</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="49"/>
+      <c r="G30" s="46"/>
       <c r="H30" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="J30" s="40"/>
+      <c r="J30" s="34"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
       <c r="H31" s="27"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="42"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="36"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
@@ -1372,15 +1366,15 @@
       <c r="E34" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
       <c r="H34" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="38" t="s">
+      <c r="I34" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J34" s="43"/>
+      <c r="J34" s="38"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
@@ -1484,6 +1478,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="F34:G34"/>
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I34:J34"/>
@@ -1495,11 +1494,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="F34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
